--- a/操作手順.xlsx
+++ b/操作手順.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ScreenTranslate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167A3A2E-066F-4DE1-9C03-CE2E5B178C0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93406676-5935-4B2B-A4A6-26DDCAB9B119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3450" yWindow="3600" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3130" yWindow="6160" windowWidth="28790" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="147">
   <si>
     <t>README.mdはChatGPTに作らせたものなので</t>
     <rPh sb="18" eb="19">
@@ -44,12 +55,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>- **Python**：3.8+ 推奨（PySide6要件に準拠）</t>
-  </si>
-  <si>
-    <t>- **依存パッケージ**：`PySide6`, `mss`, `Pillow`, `keyboard`, `requests`（`requirements.txt` 参照）</t>
-  </si>
-  <si>
     <t xml:space="preserve">&gt; **OS補足**  </t>
   </si>
   <si>
@@ -301,53 +306,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>翻訳時の口調を指定したい場合は、口調（ALT+K)から入力、プリセットか直接入力をした後OKを押す</t>
-    <rPh sb="0" eb="3">
-      <t>ホンヤクジ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>クチョウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>クチョウ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="36" eb="40">
-      <t>チョクセツニュウリョク</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>アト</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ちょっと味気がないため、もう少し口調を盛る</t>
-    <rPh sb="4" eb="6">
-      <t>アジケ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>スコ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>クチョウ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>モ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>設定したら、翻訳(ALT+)を実行。翻訳が成功すると、青枠の下、もしくは上に表示される翻訳欄にメッセージが表示される</t>
     <rPh sb="0" eb="2">
       <t>セッテイ</t>
@@ -385,40 +343,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>翻訳文もそれっぽい感じになった。気に入ったら口調(ALT+K)の画面から、現在の内容を新規保存で保存ができる。</t>
-    <rPh sb="0" eb="3">
-      <t>ホンヤクブン</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>クチョウ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="43" eb="47">
-      <t>シンキホゾン</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>ホゾン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>また、APIの実行回数を抑えたい場合は、(ALT+A)で翻訳部分を画像として連結する</t>
     <rPh sb="7" eb="11">
       <t>ジッコウカイスウ</t>
@@ -494,40 +418,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>上記は表示幅を拡大した状態。（口調はメスガキ風にしています。結果が倫理的にアウトだとたまに翻訳に失敗します・・・）</t>
-    <rPh sb="0" eb="2">
-      <t>ジョウキ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>ヒョウジハバ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カクダイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>クチョウ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>フウ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="33" eb="36">
-      <t>リンリテキ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>ホンヤク</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>シッパイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>表示した青枠は、枠内にマウスを当てることで直接枠をドラッグで移動したり</t>
     <rPh sb="0" eb="2">
       <t>ヒョウジ</t>
@@ -1202,19 +1092,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>なお翻訳中にキャンセルしたい場合は、キャンセル（ALT+X)で可能。</t>
-    <rPh sb="2" eb="5">
-      <t>ホンヤクチュウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>カノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>終了するときは、ctrl+shift+F12(F12だけでもいい)を叩くことでプログラムが終了する</t>
     <rPh sb="0" eb="2">
       <t>シュウリョウ</t>
@@ -1574,10 +1451,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>set OST_CONCAT_MODE_L=RGB</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>set OST_ANN_FONT_JA_PT=20</t>
   </si>
   <si>
@@ -1633,6 +1506,443 @@
     </rPh>
     <rPh sb="28" eb="29">
       <t>サイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>set OST_PRIMARY_ONLY=1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>set OST_CONCAT_MODE=RGB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> -**Python**：3.10+ 推奨（PySide6要件に準拠）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - **依存パッケージ**：`PySide6`, `mss`, `Pillow`, `keyboard`, `requests`（`requirements.txt` 参照）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(任意。マルチディスプレイ使用時は1を設定)</t>
+    <rPh sb="13" eb="15">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かんたんは単純なキャラクターの特徴を入力、詳細は口調をある程度固定化するための記載をしている。</t>
+    <rPh sb="5" eb="7">
+      <t>タンジュン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>トクチョウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>クチョウ</t>
+    </rPh>
+    <rPh sb="29" eb="34">
+      <t>テイドコテイカ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（かんたんはost_tone_presets.json、詳細はost_tone_presets_v2.jsonを見る）</t>
+    <rPh sb="28" eb="30">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>また、tone_gamesにフォルダを作ることで、フォルダごとに独立したプリセットを作ることも可能</t>
+    <rPh sb="19" eb="20">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ドクリツ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(例：ScreenTranslate/tone_games/cyclopean/を作り、かんたんと詳細のプリセットのjsonをコピーして作る。）</t>
+    <rPh sb="1" eb="2">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>翻訳時の口調を指定したい場合は、口調（ALT+K)を選択し表示された画面の、プリセットか直接入力をした後OKを押す</t>
+    <rPh sb="0" eb="3">
+      <t>ホンヤクジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>クチョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>クチョウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="44" eb="48">
+      <t>チョクセツニュウリョク</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なお、現在最初に選択されてるプリセットの内容が表示されないので、選びたいときは他のプリセットを選択後最初のプリセットを選択する</t>
+    <rPh sb="3" eb="5">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="47" eb="50">
+      <t>センタクゴ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初期選択のデフォルトにはかんたんと詳細の二つが選択できるようになっており</t>
+    <rPh sb="0" eb="4">
+      <t>ショキセンタク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>フタ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上記は表示幅を拡大した状態。（口調はメスガキ風にしています。倫理的にアウトになりそうな喋り方にすると翻訳に失敗する確率が上がります・・・）</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ヒョウジハバ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクダイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>クチョウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>フウ</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>リンリテキ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>シャベ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ホンヤク</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>カクリツ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.自由選択（ALT+SHIFT+C)</t>
+    <rPh sb="2" eb="4">
+      <t>ジユウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>題名通り自由に選択できます。用途場面は少ない気がしますが</t>
+    <rPh sb="0" eb="3">
+      <t>ダイメイドオ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジユウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヨウト</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>バメン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>スク</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>四角で余計なものも拾いそうなときに使います。</t>
+    <rPh sb="0" eb="2">
+      <t>シカク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヨケイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヒロ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なお、訳文が意図通りになるかどうかはGemini APIの気分次第です。</t>
+    <rPh sb="3" eb="5">
+      <t>ヤクブン</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>イトドオ</t>
+    </rPh>
+    <rPh sb="29" eb="33">
+      <t>キブンシダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4.最後の保存から再翻訳（Alt+Shift+R)</t>
+    <rPh sb="2" eb="4">
+      <t>サイゴ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>サイホンヤク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最後にAlt+Cで翻訳した画像を再度実行します。</t>
+    <rPh sb="0" eb="2">
+      <t>サイゴ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ホンヤク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t>サイドジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>用途場面は、翻訳に失敗した時とか同じ文章を別の口調で翻訳したいときとかですかね。</t>
+    <rPh sb="0" eb="4">
+      <t>ヨウトバメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ホンヤク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ブンショウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>クチョウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ホンヤク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5.画像から翻訳</t>
+    <rPh sb="2" eb="4">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ホンヤク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォルダを開くからディレクトリを選択します。</t>
+    <rPh sb="5" eb="6">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Chooseで選択すると、対象のディレクトリの画像がサムネイル形式で表示されるので</t>
+    <rPh sb="7" eb="9">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>翻訳したい画像を選択すると再翻訳が始まります。</t>
+    <rPh sb="0" eb="2">
+      <t>ホンヤク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>サイホンヤク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ハジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なお、GUIモードであればGUIに直接画像をドラッグ&amp;ドロップすれば同じような処理をさせられます。</t>
+    <rPh sb="17" eb="19">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なお翻訳中にキャンセルしたい場合は、キャンセル（ALT+X)でキャンセル可能。</t>
+    <rPh sb="2" eb="5">
+      <t>ホンヤクチュウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>カノウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1776,13 +2086,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>44692</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>638789</xdr:colOff>
-      <xdr:row>149</xdr:row>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>68709</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1819,58 +2129,14 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>44450</xdr:colOff>
-      <xdr:row>152</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>420166</xdr:colOff>
-      <xdr:row>173</xdr:row>
-      <xdr:rowOff>146739</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A900CA86-5A93-1F0D-FF03-6ABCD6C683A6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="704850" y="27044650"/>
-          <a:ext cx="7640116" cy="4934639"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>176</xdr:row>
+      <xdr:row>179</xdr:row>
       <xdr:rowOff>87210</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>176780</xdr:colOff>
-      <xdr:row>192</xdr:row>
+      <xdr:row>195</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1887,7 +2153,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1907,102 +2173,14 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>196</xdr:row>
-      <xdr:rowOff>12494</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>89964</xdr:colOff>
-      <xdr:row>215</xdr:row>
-      <xdr:rowOff>57849</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="図 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2B04150-867B-CFA0-B6A1-11E3B50CCAC0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="679450" y="37102844"/>
-          <a:ext cx="6674914" cy="4388755"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>3404</xdr:colOff>
-      <xdr:row>218</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>294714</xdr:colOff>
-      <xdr:row>232</xdr:row>
-      <xdr:rowOff>184998</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="図 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8F10C02-2125-C38C-D237-C123CC90CE5D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="663804" y="42195750"/>
-          <a:ext cx="10197310" cy="3309198"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
       <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>236</xdr:row>
+      <xdr:row>200</xdr:row>
       <xdr:rowOff>94315</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>266079</xdr:colOff>
-      <xdr:row>259</xdr:row>
+      <xdr:row>223</xdr:row>
       <xdr:rowOff>80323</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2019,7 +2197,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2040,13 +2218,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>262</xdr:row>
+      <xdr:row>226</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>184150</xdr:colOff>
-      <xdr:row>276</xdr:row>
+      <xdr:row>240</xdr:row>
       <xdr:rowOff>933</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2063,7 +2241,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2084,13 +2262,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>283</xdr:row>
+      <xdr:row>247</xdr:row>
       <xdr:rowOff>79709</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>189940</xdr:colOff>
-      <xdr:row>291</xdr:row>
+      <xdr:row>255</xdr:row>
       <xdr:rowOff>136915</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2107,7 +2285,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2151,7 +2329,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2195,7 +2373,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2216,13 +2394,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>654248</xdr:colOff>
-      <xdr:row>330</xdr:row>
+      <xdr:row>294</xdr:row>
       <xdr:rowOff>25401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>519432</xdr:colOff>
-      <xdr:row>363</xdr:row>
+      <xdr:row>327</xdr:row>
       <xdr:rowOff>177801</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2239,7 +2417,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2260,13 +2438,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>366</xdr:row>
+      <xdr:row>330</xdr:row>
       <xdr:rowOff>126044</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>396740</xdr:colOff>
-      <xdr:row>372</xdr:row>
+      <xdr:row>336</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2283,7 +2461,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2302,59 +2480,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>109365</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>512607</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>114803</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC20A376-5BF6-C304-123A-4ADAABB54BAB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="596900" y="19686415"/>
-          <a:ext cx="7180107" cy="2520038"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>33803</xdr:colOff>
-      <xdr:row>301</xdr:row>
+      <xdr:row>265</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>633435</xdr:colOff>
-      <xdr:row>320</xdr:row>
+      <xdr:row>284</xdr:row>
       <xdr:rowOff>61299</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2371,7 +2505,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2380,6 +2514,326 @@
         <a:xfrm>
           <a:off x="694203" y="68713350"/>
           <a:ext cx="7203632" cy="4360249"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>7518</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>161112</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A0D5A60-8D60-08E9-7037-62F1CA18FF11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="711200" y="22042018"/>
+          <a:ext cx="7374712" cy="2748382"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>222251</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>53321</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="図 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC845B4E-8256-2FC0-95B0-83C48C32D9E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="660401" y="35750500"/>
+          <a:ext cx="5505450" cy="4168121"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66368</xdr:colOff>
+      <xdr:row>364</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>436691</xdr:colOff>
+      <xdr:row>391</xdr:row>
+      <xdr:rowOff>217328</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="図 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D96A346-90F4-4FC6-7B3E-265E285D742B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="726768" y="84131150"/>
+          <a:ext cx="7634723" cy="6351428"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>394</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>408</xdr:row>
+      <xdr:rowOff>116356</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="図 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E77E4E2-B98C-892F-8F0A-3DC2AF7DD84A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="660400" y="90951050"/>
+          <a:ext cx="7772400" cy="3316756"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>417</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>430</xdr:row>
+      <xdr:rowOff>139014</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="図 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9DCCF64-4F0B-6563-9AE0-D334C55E088A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="660400" y="96234250"/>
+          <a:ext cx="7289800" cy="3110814"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>436</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>584742</xdr:colOff>
+      <xdr:row>455</xdr:row>
+      <xdr:rowOff>19659</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="図 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{862870EF-CAD3-67DA-4CA7-8A2699E12D6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="660400" y="100603050"/>
+          <a:ext cx="3886742" cy="4363059"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>457</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>516262</xdr:colOff>
+      <xdr:row>462</xdr:row>
+      <xdr:rowOff>95410</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="図 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D241003B-3894-2A9C-D993-89C8B4C0142E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="105498900"/>
+          <a:ext cx="13698862" cy="1143160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2654,10 +3108,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:X395"/>
+  <dimension ref="A2:X467"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E81" sqref="E81"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2669,7 +3123,7 @@
     </row>
     <row r="3" spans="2:8">
       <c r="B3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="2:8">
@@ -2679,7 +3133,7 @@
     </row>
     <row r="6" spans="2:8" ht="20">
       <c r="B6" s="7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -2693,18 +3147,18 @@
     </row>
     <row r="8" spans="2:8" ht="20">
       <c r="B8" s="7" t="s">
-        <v>2</v>
+        <v>123</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="G8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="20">
       <c r="B9" s="7" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -2712,7 +3166,7 @@
     </row>
     <row r="10" spans="2:8" ht="20">
       <c r="B10" s="7" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -2726,7 +3180,7 @@
     </row>
     <row r="12" spans="2:8" ht="20">
       <c r="B12" s="7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -2734,7 +3188,7 @@
     </row>
     <row r="13" spans="2:8" ht="20">
       <c r="B13" s="7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -2742,7 +3196,7 @@
     </row>
     <row r="15" spans="2:8" ht="22.5">
       <c r="B15" s="3" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -2753,7 +3207,7 @@
     </row>
     <row r="16" spans="2:8" ht="22.5">
       <c r="B16" s="3" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -2764,7 +3218,7 @@
     </row>
     <row r="17" spans="1:11" ht="22.5">
       <c r="B17" s="3" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -2775,7 +3229,7 @@
     </row>
     <row r="18" spans="1:11" ht="22.5">
       <c r="B18" s="3" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -2786,7 +3240,7 @@
     </row>
     <row r="19" spans="1:11" ht="22.5">
       <c r="B19" s="3" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -2797,7 +3251,7 @@
     </row>
     <row r="20" spans="1:11" ht="22.5">
       <c r="B20" s="3" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -2808,7 +3262,7 @@
     </row>
     <row r="21" spans="1:11" ht="22.5">
       <c r="B21" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -2828,7 +3282,7 @@
     </row>
     <row r="23" spans="1:11">
       <c r="B23" s="6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -2842,12 +3296,12 @@
     </row>
     <row r="24" spans="1:11">
       <c r="B24" s="6" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
@@ -2858,12 +3312,12 @@
     </row>
     <row r="25" spans="1:11">
       <c r="B25" s="6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
@@ -2874,12 +3328,12 @@
     </row>
     <row r="26" spans="1:11">
       <c r="B26" s="6" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
@@ -2890,12 +3344,12 @@
     </row>
     <row r="27" spans="1:11">
       <c r="B27" s="6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
@@ -2906,12 +3360,12 @@
     </row>
     <row r="28" spans="1:11">
       <c r="B28" s="6" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
@@ -2922,12 +3376,12 @@
     </row>
     <row r="29" spans="1:11">
       <c r="B29" s="6" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
@@ -2965,509 +3419,597 @@
         <v>1</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="2:3">
       <c r="B33" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C33" s="1"/>
     </row>
     <row r="34" spans="2:3">
       <c r="B34" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="2:3">
       <c r="B35" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="2:3">
       <c r="B36" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="2:3">
       <c r="B37" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="2:3">
       <c r="B38" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="2:3">
       <c r="B40" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="2:3">
       <c r="B41" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="2:3">
       <c r="B42" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="2:3">
       <c r="B43" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="2:4">
       <c r="B51" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="56" spans="2:4">
       <c r="B56" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="57" spans="2:4">
       <c r="B57" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="60" spans="2:4">
       <c r="B60" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
     </row>
     <row r="61" spans="2:4">
       <c r="B61" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="62" spans="2:4">
       <c r="B62" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="2:4">
       <c r="B63" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64" spans="2:4">
       <c r="B64" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="65" spans="2:6">
       <c r="B65" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" spans="2:6">
       <c r="B67" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68" spans="2:6">
       <c r="B68" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="69" spans="2:6">
       <c r="B69" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="70" spans="2:6">
       <c r="B70" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71" spans="2:6">
       <c r="B71" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F71" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="72" spans="2:6">
       <c r="B72" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E72" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="73" spans="2:6">
       <c r="B73" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E73" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="74" spans="2:6">
       <c r="B74" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="75" spans="2:6">
       <c r="B75" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E75" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="76" spans="2:6">
       <c r="B76" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E76" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="77" spans="2:6">
       <c r="B77" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E77" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="78" spans="2:6">
       <c r="B78" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E78" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="79" spans="2:6">
       <c r="B79" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="E79" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="80" spans="2:6">
       <c r="B80" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="E80" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="81" spans="1:24">
       <c r="B81" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E81" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="82" spans="1:24">
       <c r="B82" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="84" spans="1:24">
-      <c r="B84" t="s">
-        <v>18</v>
+        <v>121</v>
+      </c>
+      <c r="E82" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24">
+      <c r="B83" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="85" spans="1:24">
       <c r="B85" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" spans="1:24">
       <c r="B86" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="88" spans="1:24" ht="22.5">
-      <c r="A88" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24">
+      <c r="B87" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24" ht="22.5">
+      <c r="A89" s="2">
         <v>2</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="90" spans="1:24">
-      <c r="B90" t="s">
-        <v>28</v>
+      <c r="B89" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="91" spans="1:24">
       <c r="B91" t="s">
-        <v>57</v>
-      </c>
-      <c r="U91" s="4"/>
-      <c r="V91" s="5"/>
-      <c r="W91" s="5"/>
-      <c r="X91" s="5"/>
+        <v>26</v>
+      </c>
     </row>
     <row r="92" spans="1:24">
       <c r="B92" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="U92" s="4"/>
       <c r="V92" s="5"/>
       <c r="W92" s="5"/>
       <c r="X92" s="5"/>
     </row>
-    <row r="104" spans="2:24">
-      <c r="U104" s="4"/>
-      <c r="V104" s="5"/>
-      <c r="W104" s="5"/>
-      <c r="X104" s="5"/>
-    </row>
-    <row r="106" spans="2:24">
-      <c r="B106" t="s">
-        <v>29</v>
-      </c>
+    <row r="93" spans="1:24">
+      <c r="B93" t="s">
+        <v>52</v>
+      </c>
+      <c r="U93" s="4"/>
+      <c r="V93" s="5"/>
+      <c r="W93" s="5"/>
+      <c r="X93" s="5"/>
+    </row>
+    <row r="105" spans="2:24">
+      <c r="U105" s="4"/>
+      <c r="V105" s="5"/>
+      <c r="W105" s="5"/>
+      <c r="X105" s="5"/>
     </row>
     <row r="107" spans="2:24">
       <c r="B107" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
     </row>
     <row r="108" spans="2:24">
-      <c r="B108" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C108" s="5"/>
-      <c r="D108" s="5"/>
+      <c r="B108" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="109" spans="2:24">
-      <c r="B109" s="5" t="s">
-        <v>53</v>
+      <c r="B109" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
     </row>
-    <row r="112" spans="2:24">
-      <c r="B112" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="151" spans="2:2">
-      <c r="B151" t="s">
-        <v>31</v>
+    <row r="110" spans="2:24">
+      <c r="B110" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C110" s="5"/>
+      <c r="D110" s="5"/>
+    </row>
+    <row r="113" spans="2:2">
+      <c r="B113" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2">
+      <c r="B152" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2">
+      <c r="B153" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="173" spans="2:2">
+      <c r="B173" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="174" spans="2:2">
+      <c r="B174" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="175" spans="2:2">
+      <c r="B175" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="176" spans="2:2">
       <c r="B176" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2">
+      <c r="B177" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2">
+      <c r="B179" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="199" spans="2:2">
+      <c r="B199" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="200" spans="2:2">
+      <c r="B200" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="225" spans="2:2">
+      <c r="B225" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="242" spans="2:2">
+      <c r="B242" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="243" spans="2:2">
+      <c r="B243" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="245" spans="2:2">
+      <c r="B245" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="195" spans="2:2">
-      <c r="B195" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="218" spans="2:2">
-      <c r="B218" t="s">
+    <row r="246" spans="2:2">
+      <c r="B246" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="235" spans="2:2">
-      <c r="B235" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="236" spans="2:2">
-      <c r="B236" t="s">
-        <v>36</v>
+    <row r="258" spans="2:2">
+      <c r="B258" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="259" spans="2:2">
+      <c r="B259" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="260" spans="2:2">
+      <c r="B260" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="261" spans="2:2">
       <c r="B261" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="278" spans="2:2">
-      <c r="B278" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="279" spans="2:2">
-      <c r="B279" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="281" spans="2:2">
-      <c r="B281" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="282" spans="2:2">
-      <c r="B282" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="294" spans="2:2">
-      <c r="B294" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="295" spans="2:2">
-      <c r="B295" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="296" spans="2:2">
-      <c r="B296" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="297" spans="2:2">
-      <c r="B297" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="299" spans="2:2">
-      <c r="B299" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="301" spans="2:2">
-      <c r="B301" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="323" spans="1:4" ht="22.5">
-      <c r="A323" s="2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="263" spans="2:2">
+      <c r="B263" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="265" spans="2:2">
+      <c r="B265" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" ht="22.5">
+      <c r="A287" s="2">
         <v>3</v>
       </c>
-      <c r="B323" s="2" t="s">
+      <c r="B287" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="289" spans="2:4">
+      <c r="B289" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="325" spans="1:4">
-      <c r="B325" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C325" s="1"/>
-      <c r="D325" s="1"/>
-    </row>
-    <row r="326" spans="1:4">
-      <c r="B326" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="327" spans="1:4">
-      <c r="B327" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="329" spans="1:4">
-      <c r="B329" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="366" spans="2:2">
-      <c r="B366" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="374" spans="2:2">
-      <c r="B374" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="375" spans="2:2">
-      <c r="B375" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="378" spans="2:2">
-      <c r="B378" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="379" spans="2:2">
-      <c r="B379" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="381" spans="2:2" ht="20">
-      <c r="B381" s="8" t="s">
+      <c r="C289" s="1"/>
+      <c r="D289" s="1"/>
+    </row>
+    <row r="290" spans="2:4">
+      <c r="B290" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="291" spans="2:4">
+      <c r="B291" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="293" spans="2:4">
+      <c r="B293" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="330" spans="2:2">
+      <c r="B330" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="338" spans="2:2">
+      <c r="B338" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="339" spans="2:2">
+      <c r="B339" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="342" spans="2:2">
+      <c r="B342" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="343" spans="2:2">
+      <c r="B343" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="345" spans="2:2" ht="20">
+      <c r="B345" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="346" spans="2:2">
+      <c r="B346" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="347" spans="2:2">
+      <c r="B347" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="348" spans="2:2">
+      <c r="B348" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="350" spans="2:2">
+      <c r="B350" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="351" spans="2:2">
+      <c r="B351" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="352" spans="2:2">
+      <c r="B352" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="353" spans="2:2">
+      <c r="B353" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="354" spans="2:2">
+      <c r="B354" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="355" spans="2:2">
+      <c r="B355" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="356" spans="2:2">
+      <c r="B356" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="357" spans="2:2">
+      <c r="B357" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="358" spans="2:2">
+      <c r="B358" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="382" spans="2:2">
-      <c r="B382" t="s">
+    <row r="359" spans="2:2">
+      <c r="B359" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="383" spans="2:2">
-      <c r="B383" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="384" spans="2:2">
-      <c r="B384" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="386" spans="2:2">
-      <c r="B386" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="387" spans="2:2">
-      <c r="B387" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="388" spans="2:2">
-      <c r="B388" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="389" spans="2:2">
-      <c r="B389" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="390" spans="2:2">
-      <c r="B390" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="391" spans="2:2">
-      <c r="B391" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="392" spans="2:2">
-      <c r="B392" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="393" spans="2:2">
-      <c r="B393" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="394" spans="2:2">
-      <c r="B394" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="395" spans="2:2">
-      <c r="B395" t="s">
-        <v>115</v>
+    <row r="361" spans="2:2" ht="20">
+      <c r="B361" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="362" spans="2:2">
+      <c r="B362" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="363" spans="2:2">
+      <c r="B363" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="411" spans="2:2">
+      <c r="B411" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="413" spans="2:2" ht="20">
+      <c r="B413" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="415" spans="2:2">
+      <c r="B415" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="416" spans="2:2">
+      <c r="B416" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="433" spans="2:2" ht="20">
+      <c r="B433" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="435" spans="2:2">
+      <c r="B435" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="464" spans="2:2">
+      <c r="B464" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="465" spans="2:2">
+      <c r="B465" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="467" spans="2:2">
+      <c r="B467" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
